--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H2">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I2">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J2">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>1116.514819004561</v>
+        <v>5660.079154177177</v>
       </c>
       <c r="R2">
-        <v>10048.63337104105</v>
+        <v>50940.71238759459</v>
       </c>
       <c r="S2">
-        <v>0.003261544610417927</v>
+        <v>0.01108777233768541</v>
       </c>
       <c r="T2">
-        <v>0.003261544610417928</v>
+        <v>0.01108777233768541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H3">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I3">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J3">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>527.3872002044682</v>
+        <v>2040.997605762929</v>
       </c>
       <c r="R3">
-        <v>4746.484801840214</v>
+        <v>18368.97845186637</v>
       </c>
       <c r="S3">
-        <v>0.001540594760725032</v>
+        <v>0.003998197936465108</v>
       </c>
       <c r="T3">
-        <v>0.001540594760725032</v>
+        <v>0.003998197936465108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H4">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I4">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J4">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>21.54488671829355</v>
+        <v>26.77456231108999</v>
       </c>
       <c r="R4">
-        <v>193.903980464642</v>
+        <v>240.97106079981</v>
       </c>
       <c r="S4">
-        <v>6.293656650322353E-05</v>
+        <v>5.244984094037726E-05</v>
       </c>
       <c r="T4">
-        <v>6.293656650322353E-05</v>
+        <v>5.244984094037726E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H5">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I5">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J5">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>246.5170629765165</v>
+        <v>687.9089851248019</v>
       </c>
       <c r="R5">
-        <v>2218.653566788649</v>
+        <v>6191.180866123218</v>
       </c>
       <c r="S5">
-        <v>0.0007201215643908351</v>
+        <v>0.001347574478792044</v>
       </c>
       <c r="T5">
-        <v>0.0007201215643908351</v>
+        <v>0.001347574478792044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H6">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I6">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J6">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>518.0210572409509</v>
+        <v>3597.826868537446</v>
       </c>
       <c r="R6">
-        <v>4662.189515168558</v>
+        <v>32380.44181683701</v>
       </c>
       <c r="S6">
-        <v>0.001513234538914184</v>
+        <v>0.00704793769523706</v>
       </c>
       <c r="T6">
-        <v>0.001513234538914184</v>
+        <v>0.00704793769523706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I7">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J7">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>136303.0772524844</v>
+        <v>225499.8975600807</v>
       </c>
       <c r="R7">
-        <v>1226727.69527236</v>
+        <v>2029499.078040726</v>
       </c>
       <c r="S7">
-        <v>0.3981662933883577</v>
+        <v>0.4417414418086935</v>
       </c>
       <c r="T7">
-        <v>0.3981662933883577</v>
+        <v>0.4417414418086935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J8">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>64382.93255751894</v>
+        <v>81314.18986963228</v>
       </c>
       <c r="R8">
-        <v>579446.3930176705</v>
+        <v>731827.7088266904</v>
       </c>
       <c r="S8">
-        <v>0.1880743570184706</v>
+        <v>0.1592898615971521</v>
       </c>
       <c r="T8">
-        <v>0.1880743570184706</v>
+        <v>0.159289861597152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J9">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>2630.179473459901</v>
+        <v>1066.709650855493</v>
       </c>
       <c r="R9">
-        <v>23671.6152611391</v>
+        <v>9600.386857699441</v>
       </c>
       <c r="S9">
-        <v>0.007683236747133546</v>
+        <v>0.002089623384572082</v>
       </c>
       <c r="T9">
-        <v>0.007683236747133546</v>
+        <v>0.002089623384572082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I10">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J10">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>30094.57080820568</v>
+        <v>27406.57885708538</v>
       </c>
       <c r="R10">
-        <v>270851.1372738511</v>
+        <v>246659.2097137684</v>
       </c>
       <c r="S10">
-        <v>0.0879117621652839</v>
+        <v>0.05368792531777956</v>
       </c>
       <c r="T10">
-        <v>0.08791176216528389</v>
+        <v>0.05368792531777956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I11">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J11">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>63239.52264823326</v>
+        <v>143338.9124417718</v>
       </c>
       <c r="R11">
-        <v>569155.7038340993</v>
+        <v>1290050.211975946</v>
       </c>
       <c r="S11">
-        <v>0.1847342469154502</v>
+        <v>0.280792756601799</v>
       </c>
       <c r="T11">
-        <v>0.1847342469154501</v>
+        <v>0.280792756601799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H12">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I12">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J12">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N12">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O12">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P12">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q12">
-        <v>108.155541541327</v>
+        <v>36.45022989667888</v>
       </c>
       <c r="R12">
-        <v>973.3998738719429</v>
+        <v>328.05206907011</v>
       </c>
       <c r="S12">
-        <v>0.0003159421779242022</v>
+        <v>7.14039220551188E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003159421779242021</v>
+        <v>7.14039220551188E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H13">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I13">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J13">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N13">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q13">
-        <v>51.08740812856644</v>
+        <v>13.14377942819511</v>
       </c>
       <c r="R13">
-        <v>459.786673157098</v>
+        <v>118.294014853756</v>
       </c>
       <c r="S13">
-        <v>0.0001492356911039497</v>
+        <v>2.574791447024672E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001492356911039497</v>
+        <v>2.574791447024671E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H14">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I14">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J14">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N14">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O14">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P14">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q14">
-        <v>2.087029075477111</v>
+        <v>0.1724249652766666</v>
       </c>
       <c r="R14">
-        <v>18.783261679294</v>
+        <v>1.55182468749</v>
       </c>
       <c r="S14">
-        <v>6.096594793947E-06</v>
+        <v>3.377706756821703E-07</v>
       </c>
       <c r="T14">
-        <v>6.096594793946998E-06</v>
+        <v>3.377706756821703E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H15">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I15">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J15">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N15">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q15">
-        <v>23.87983212723811</v>
+        <v>4.430051236524666</v>
       </c>
       <c r="R15">
-        <v>214.918489145143</v>
+        <v>39.87046112872199</v>
       </c>
       <c r="S15">
-        <v>6.975737038736088E-05</v>
+        <v>8.678217780508739E-06</v>
       </c>
       <c r="T15">
-        <v>6.975737038736087E-05</v>
+        <v>8.678217780508739E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H16">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I16">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J16">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N16">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O16">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P16">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q16">
-        <v>50.18012033701177</v>
+        <v>23.16957288306733</v>
       </c>
       <c r="R16">
-        <v>451.6210830331059</v>
+        <v>208.526155947606</v>
       </c>
       <c r="S16">
-        <v>0.0001465853370233103</v>
+        <v>4.538787219950215E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001465853370233102</v>
+        <v>4.538787219950215E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H17">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I17">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J17">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N17">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O17">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P17">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q17">
-        <v>19502.58722037174</v>
+        <v>9176.418037544818</v>
       </c>
       <c r="R17">
-        <v>175523.2849833457</v>
+        <v>82587.76233790335</v>
       </c>
       <c r="S17">
-        <v>0.05697063501093502</v>
+        <v>0.01797607971624171</v>
       </c>
       <c r="T17">
-        <v>0.05697063501093502</v>
+        <v>0.01797607971624171</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H18">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I18">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J18">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N18">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q18">
-        <v>9212.071972376823</v>
+        <v>3308.972672279074</v>
       </c>
       <c r="R18">
-        <v>82908.6477513914</v>
+        <v>29780.75405051166</v>
       </c>
       <c r="S18">
-        <v>0.02691015218147762</v>
+        <v>0.006482088794602114</v>
       </c>
       <c r="T18">
-        <v>0.02691015218147762</v>
+        <v>0.006482088794602113</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H19">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I19">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J19">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N19">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O19">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P19">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q19">
-        <v>376.3326963731346</v>
+        <v>43.40832872585</v>
       </c>
       <c r="R19">
-        <v>3386.994267358212</v>
+        <v>390.67495853265</v>
       </c>
       <c r="S19">
-        <v>0.001099336844157758</v>
+        <v>8.503444092587128E-05</v>
       </c>
       <c r="T19">
-        <v>0.001099336844157757</v>
+        <v>8.503444092587128E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H20">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I20">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J20">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N20">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q20">
-        <v>4306.006906648813</v>
+        <v>1115.27422980113</v>
       </c>
       <c r="R20">
-        <v>38754.06215983932</v>
+        <v>10037.46806821017</v>
       </c>
       <c r="S20">
-        <v>0.01257863610921356</v>
+        <v>0.002184758625680393</v>
       </c>
       <c r="T20">
-        <v>0.01257863610921356</v>
+        <v>0.002184758625680393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H21">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I21">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J21">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N21">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O21">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P21">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q21">
-        <v>9048.470005832998</v>
+        <v>5832.986160280991</v>
       </c>
       <c r="R21">
-        <v>81436.23005249699</v>
+        <v>52496.87544252891</v>
       </c>
       <c r="S21">
-        <v>0.02643224082450117</v>
+        <v>0.01142648730386305</v>
       </c>
       <c r="T21">
-        <v>0.02643224082450117</v>
+        <v>0.01142648730386305</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H22">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I22">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J22">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N22">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O22">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P22">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q22">
-        <v>32.104078967281</v>
+        <v>90.83711846633111</v>
       </c>
       <c r="R22">
-        <v>288.936710705529</v>
+        <v>817.5340661969799</v>
       </c>
       <c r="S22">
-        <v>9.378190414124648E-05</v>
+        <v>0.0001779447357415014</v>
       </c>
       <c r="T22">
-        <v>9.378190414124647E-05</v>
+        <v>0.0001779447357415014</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H23">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I23">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J23">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N23">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O23">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P23">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q23">
-        <v>15.16440268727711</v>
+        <v>32.75543261040089</v>
       </c>
       <c r="R23">
-        <v>136.479624185494</v>
+        <v>294.798893493608</v>
       </c>
       <c r="S23">
-        <v>4.429800215190316E-05</v>
+        <v>6.416602484056938E-05</v>
       </c>
       <c r="T23">
-        <v>4.429800215190316E-05</v>
+        <v>6.416602484056936E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H24">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I24">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J24">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N24">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O24">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P24">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q24">
-        <v>0.6194980422757778</v>
+        <v>0.4296978933133332</v>
       </c>
       <c r="R24">
-        <v>5.575482380482</v>
+        <v>3.867281039819999</v>
       </c>
       <c r="S24">
-        <v>1.809667428104926E-06</v>
+        <v>8.41753672565713E-07</v>
       </c>
       <c r="T24">
-        <v>1.809667428104926E-06</v>
+        <v>8.417536725657129E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H25">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I25">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J25">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N25">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O25">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P25">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q25">
-        <v>7.088310089458779</v>
+        <v>11.04006998377733</v>
       </c>
       <c r="R25">
-        <v>63.794790805129</v>
+        <v>99.36062985399599</v>
       </c>
       <c r="S25">
-        <v>2.070625411837983E-05</v>
+        <v>2.162686761754879E-05</v>
       </c>
       <c r="T25">
-        <v>2.070625411837983E-05</v>
+        <v>2.162686761754879E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H26">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I26">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J26">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N26">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O26">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P26">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q26">
-        <v>14.89509019074644</v>
+        <v>57.74057510087866</v>
       </c>
       <c r="R26">
-        <v>134.055811716718</v>
+        <v>519.665175907908</v>
       </c>
       <c r="S26">
-        <v>4.351129094428936E-05</v>
+        <v>0.0001131104943811761</v>
       </c>
       <c r="T26">
-        <v>4.351129094428934E-05</v>
+        <v>0.0001131104943811761</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H27">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I27">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J27">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N27">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O27">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P27">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q27">
-        <v>227.905288058615</v>
+        <v>43.47516712594611</v>
       </c>
       <c r="R27">
-        <v>2051.147592527535</v>
+        <v>391.2765041335149</v>
       </c>
       <c r="S27">
-        <v>0.0006657531555345032</v>
+        <v>8.516537354068E-05</v>
       </c>
       <c r="T27">
-        <v>0.0006657531555345031</v>
+        <v>8.516537354068E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H28">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I28">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J28">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N28">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O28">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P28">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q28">
-        <v>107.6513537797789</v>
+        <v>15.67693836025489</v>
       </c>
       <c r="R28">
-        <v>968.8621840180101</v>
+        <v>141.092445242294</v>
       </c>
       <c r="S28">
-        <v>0.0003144693529797183</v>
+        <v>3.071022838296376E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003144693529797182</v>
+        <v>3.071022838296375E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H29">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I29">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J29">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N29">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O29">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P29">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q29">
-        <v>4.397786334892222</v>
+        <v>0.2056558820983333</v>
       </c>
       <c r="R29">
-        <v>39.58007701403</v>
+        <v>1.850902938885</v>
       </c>
       <c r="S29">
-        <v>1.284674065600445E-05</v>
+        <v>4.028681469815383E-07</v>
       </c>
       <c r="T29">
-        <v>1.284674065600445E-05</v>
+        <v>4.028681469815383E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H30">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I30">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J30">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N30">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O30">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P30">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q30">
-        <v>50.31956700683723</v>
+        <v>5.283840964250333</v>
       </c>
       <c r="R30">
-        <v>452.876103061535</v>
+        <v>47.55456867825299</v>
       </c>
       <c r="S30">
-        <v>0.0001469926863272948</v>
+        <v>1.035074317589834E-05</v>
       </c>
       <c r="T30">
-        <v>0.0001469926863272948</v>
+        <v>1.035074317589834E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H31">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I31">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J31">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N31">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O31">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P31">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q31">
-        <v>105.7395175248856</v>
+        <v>27.63497119725766</v>
       </c>
       <c r="R31">
-        <v>951.65565772397</v>
+        <v>248.714740775319</v>
       </c>
       <c r="S31">
-        <v>0.0003088845285537351</v>
+        <v>5.413533288974479E-05</v>
       </c>
       <c r="T31">
-        <v>0.0003088845285537349</v>
+        <v>5.413533288974479E-05</v>
       </c>
     </row>
   </sheetData>
